--- a/data/pca/factorExposure/factorExposure_2009-04-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01729539105159362</v>
+        <v>0.01664918733975422</v>
       </c>
       <c r="C2">
-        <v>-0.002039002069119957</v>
+        <v>-0.001289338378204104</v>
       </c>
       <c r="D2">
-        <v>0.007793478790794766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008965338438025496</v>
+      </c>
+      <c r="E2">
+        <v>-0.0002419059971700857</v>
+      </c>
+      <c r="F2">
+        <v>-0.01976635628440859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08707967748579887</v>
+        <v>0.09038400003386565</v>
       </c>
       <c r="C4">
-        <v>-0.02055223574416793</v>
+        <v>-0.0158145320043419</v>
       </c>
       <c r="D4">
-        <v>0.08054070994970655</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08424136161246852</v>
+      </c>
+      <c r="E4">
+        <v>-0.03178265368698355</v>
+      </c>
+      <c r="F4">
+        <v>0.03684701538313809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0003267359404139937</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7.766679024023765e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>4.009021043435002e-05</v>
+      </c>
+      <c r="E5">
+        <v>9.441520612827281e-05</v>
+      </c>
+      <c r="F5">
+        <v>0.0003375517805143756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.156773659203127</v>
+        <v>0.164631923188401</v>
       </c>
       <c r="C6">
-        <v>-0.03469860459438796</v>
+        <v>-0.03313506585812185</v>
       </c>
       <c r="D6">
-        <v>-0.02914071566131773</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01999932500263298</v>
+      </c>
+      <c r="E6">
+        <v>-0.01583512243723583</v>
+      </c>
+      <c r="F6">
+        <v>0.05716826180949471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05737820306892669</v>
+        <v>0.06096859322440301</v>
       </c>
       <c r="C7">
-        <v>-0.002147403843102024</v>
+        <v>0.001144662981987948</v>
       </c>
       <c r="D7">
-        <v>0.04765726617412942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05285568935382597</v>
+      </c>
+      <c r="E7">
+        <v>-0.01927672735344935</v>
+      </c>
+      <c r="F7">
+        <v>0.04460514994142369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05846589770223291</v>
+        <v>0.05482624385059511</v>
       </c>
       <c r="C8">
-        <v>0.009677307431598947</v>
+        <v>0.011964507208934</v>
       </c>
       <c r="D8">
-        <v>0.02492343455374481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02997932191794461</v>
+      </c>
+      <c r="E8">
+        <v>-0.0134797838636807</v>
+      </c>
+      <c r="F8">
+        <v>-0.03626068261336016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06821096212044427</v>
+        <v>0.07057613846310165</v>
       </c>
       <c r="C9">
-        <v>-0.01639430414609935</v>
+        <v>-0.01132720429742827</v>
       </c>
       <c r="D9">
-        <v>0.08420961431894916</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08822350167929928</v>
+      </c>
+      <c r="E9">
+        <v>-0.03023283756011135</v>
+      </c>
+      <c r="F9">
+        <v>0.05606030295583982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08874239222815866</v>
+        <v>0.08831618648679264</v>
       </c>
       <c r="C10">
-        <v>-0.02009017066941611</v>
+        <v>-0.02395039395207073</v>
       </c>
       <c r="D10">
-        <v>-0.1682269643458582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1585107182403211</v>
+      </c>
+      <c r="E10">
+        <v>0.03738079089133906</v>
+      </c>
+      <c r="F10">
+        <v>-0.07572145343266047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08859611561031906</v>
+        <v>0.0857200286396801</v>
       </c>
       <c r="C11">
-        <v>-0.01772953667495829</v>
+        <v>-0.0122794635641096</v>
       </c>
       <c r="D11">
-        <v>0.1157225104823032</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1205403848930179</v>
+      </c>
+      <c r="E11">
+        <v>-0.05556335610009041</v>
+      </c>
+      <c r="F11">
+        <v>0.004286643260094567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09542797741086834</v>
+        <v>0.08998142892032705</v>
       </c>
       <c r="C12">
-        <v>-0.01637516065028095</v>
+        <v>-0.0100774871452861</v>
       </c>
       <c r="D12">
-        <v>0.1229450531216485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1363463559430571</v>
+      </c>
+      <c r="E12">
+        <v>-0.0592433884697926</v>
+      </c>
+      <c r="F12">
+        <v>0.009757414075146005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.0446002436310432</v>
+        <v>0.04424779059699997</v>
       </c>
       <c r="C13">
-        <v>-0.007222342727499857</v>
+        <v>-0.003666258741776425</v>
       </c>
       <c r="D13">
-        <v>0.04977098209407221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05578962999674739</v>
+      </c>
+      <c r="E13">
+        <v>-0.001827807944755322</v>
+      </c>
+      <c r="F13">
+        <v>0.005557080818703427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0179988321493676</v>
+        <v>0.02153137567430559</v>
       </c>
       <c r="C14">
-        <v>-0.01474251952920855</v>
+        <v>-0.01362761692064185</v>
       </c>
       <c r="D14">
-        <v>0.03271364609568232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03352755963766772</v>
+      </c>
+      <c r="E14">
+        <v>-0.02215665387046145</v>
+      </c>
+      <c r="F14">
+        <v>0.01125651853493525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0347017174178989</v>
+        <v>0.0347762218244476</v>
       </c>
       <c r="C15">
-        <v>-0.008249774156043312</v>
+        <v>-0.006394326481331501</v>
       </c>
       <c r="D15">
-        <v>0.04867401924103094</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04838715899203418</v>
+      </c>
+      <c r="E15">
+        <v>-0.01157074598773609</v>
+      </c>
+      <c r="F15">
+        <v>0.02695910744575058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07143422419196159</v>
+        <v>0.06983534371245585</v>
       </c>
       <c r="C16">
-        <v>-0.007255511840199045</v>
+        <v>-0.001702869652101962</v>
       </c>
       <c r="D16">
-        <v>0.118608279715945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1307819828852938</v>
+      </c>
+      <c r="E16">
+        <v>-0.06962311393622676</v>
+      </c>
+      <c r="F16">
+        <v>0.006219238592573529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001873315562647988</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0008194952284142898</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.001784647292647732</v>
+      </c>
+      <c r="E17">
+        <v>-0.005054263537155444</v>
+      </c>
+      <c r="F17">
+        <v>-0.003861138717668529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.0269174543413668</v>
+        <v>0.0449649394163156</v>
       </c>
       <c r="C18">
-        <v>0.0008196346675973752</v>
+        <v>0.000725394470291897</v>
       </c>
       <c r="D18">
-        <v>0.02256407817987735</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01851620936679922</v>
+      </c>
+      <c r="E18">
+        <v>0.004628195876102782</v>
+      </c>
+      <c r="F18">
+        <v>-0.01352710925950836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06275865333701104</v>
+        <v>0.06190524482082341</v>
       </c>
       <c r="C20">
-        <v>-0.005875454472216344</v>
+        <v>-0.002109230974157392</v>
       </c>
       <c r="D20">
-        <v>0.07516869046752872</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07927549080120576</v>
+      </c>
+      <c r="E20">
+        <v>-0.0647093989845846</v>
+      </c>
+      <c r="F20">
+        <v>0.02726498518549135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04036801367994562</v>
+        <v>0.04249351473596616</v>
       </c>
       <c r="C21">
-        <v>-0.01024727890100368</v>
+        <v>-0.007745294570541249</v>
       </c>
       <c r="D21">
-        <v>0.03745171488061225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0376482290494578</v>
+      </c>
+      <c r="E21">
+        <v>-7.53695560861124e-05</v>
+      </c>
+      <c r="F21">
+        <v>-0.02622025062334529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04300183080941941</v>
+        <v>0.04434918794816559</v>
       </c>
       <c r="C22">
-        <v>-0.00258210620940184</v>
+        <v>-0.001915337498160465</v>
       </c>
       <c r="D22">
-        <v>0.002251602973992632</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.009155697277474353</v>
+      </c>
+      <c r="E22">
+        <v>-0.02923900385909611</v>
+      </c>
+      <c r="F22">
+        <v>-0.08702010943259519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04299490085352591</v>
+        <v>0.04434258016325141</v>
       </c>
       <c r="C23">
-        <v>-0.002583455384152591</v>
+        <v>-0.00191481603560981</v>
       </c>
       <c r="D23">
-        <v>0.002303695207547844</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.009196602974670547</v>
+      </c>
+      <c r="E23">
+        <v>-0.02923151926969508</v>
+      </c>
+      <c r="F23">
+        <v>-0.08699868445639101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07915647161652072</v>
+        <v>0.07601789259215086</v>
       </c>
       <c r="C24">
-        <v>-0.008171914158986941</v>
+        <v>-0.00264365961660373</v>
       </c>
       <c r="D24">
-        <v>0.1199013295789393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1244074565755145</v>
+      </c>
+      <c r="E24">
+        <v>-0.05448475937523084</v>
+      </c>
+      <c r="F24">
+        <v>0.01832295299572052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08369539075264486</v>
+        <v>0.08070341206439927</v>
       </c>
       <c r="C25">
-        <v>-0.01050905229813512</v>
+        <v>-0.005542744772565476</v>
       </c>
       <c r="D25">
-        <v>0.1073893017003554</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1122179218634831</v>
+      </c>
+      <c r="E25">
+        <v>-0.0400975512150752</v>
+      </c>
+      <c r="F25">
+        <v>0.01232453267101044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05710732534567611</v>
+        <v>0.06104388314466835</v>
       </c>
       <c r="C26">
-        <v>-0.01882135223920142</v>
+        <v>-0.0155975150702254</v>
       </c>
       <c r="D26">
-        <v>0.04095431886377916</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04931424387680073</v>
+      </c>
+      <c r="E26">
+        <v>-0.02936501690237552</v>
+      </c>
+      <c r="F26">
+        <v>-0.01968040950190506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1416070543887269</v>
+        <v>0.1486495722445293</v>
       </c>
       <c r="C28">
-        <v>-0.02163589556001519</v>
+        <v>-0.0283384451899019</v>
       </c>
       <c r="D28">
-        <v>-0.2594740808287975</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2546773799094442</v>
+      </c>
+      <c r="E28">
+        <v>0.06200433917234759</v>
+      </c>
+      <c r="F28">
+        <v>0.0065594660344936</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02513905182144903</v>
+        <v>0.02758937970654247</v>
       </c>
       <c r="C29">
-        <v>-0.009700041530334057</v>
+        <v>-0.009037896326139477</v>
       </c>
       <c r="D29">
-        <v>0.03126365132849208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03099689948271932</v>
+      </c>
+      <c r="E29">
+        <v>-0.01653414094626973</v>
+      </c>
+      <c r="F29">
+        <v>-0.02677073337982805</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05588879787712311</v>
+        <v>0.0534455218928183</v>
       </c>
       <c r="C30">
-        <v>-0.007642995212086729</v>
+        <v>-0.002754896081645204</v>
       </c>
       <c r="D30">
-        <v>0.07986019362977595</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08799633699304227</v>
+      </c>
+      <c r="E30">
+        <v>-0.02206553827645035</v>
+      </c>
+      <c r="F30">
+        <v>0.09973515848531894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05111865938199927</v>
+        <v>0.0515533455988425</v>
       </c>
       <c r="C31">
-        <v>-0.01858047241379378</v>
+        <v>-0.01694601381736337</v>
       </c>
       <c r="D31">
-        <v>0.02417147311932174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02675080174009721</v>
+      </c>
+      <c r="E31">
+        <v>-0.02913664445378679</v>
+      </c>
+      <c r="F31">
+        <v>-0.01197460617801099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04512559940213213</v>
+        <v>0.05018868659915585</v>
       </c>
       <c r="C32">
-        <v>-0.002282557329260078</v>
+        <v>0.001165096762406576</v>
       </c>
       <c r="D32">
-        <v>0.03182540705339437</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03579976072402703</v>
+      </c>
+      <c r="E32">
+        <v>-0.03182649096936879</v>
+      </c>
+      <c r="F32">
+        <v>-0.002254387242040417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0891560354921815</v>
+        <v>0.08951459783245273</v>
       </c>
       <c r="C33">
-        <v>-0.01435022245407762</v>
+        <v>-0.008325727403507116</v>
       </c>
       <c r="D33">
-        <v>0.09351328098096703</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1064673871200968</v>
+      </c>
+      <c r="E33">
+        <v>-0.058502549447316</v>
+      </c>
+      <c r="F33">
+        <v>0.02455615373499557</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06696622846354952</v>
+        <v>0.06573382187620989</v>
       </c>
       <c r="C34">
-        <v>-0.01592276324793004</v>
+        <v>-0.01099982500503508</v>
       </c>
       <c r="D34">
-        <v>0.1015448643822448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1126552731890836</v>
+      </c>
+      <c r="E34">
+        <v>-0.04306669559188564</v>
+      </c>
+      <c r="F34">
+        <v>0.02869056358519115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02632346741574444</v>
+        <v>0.02774690738782804</v>
       </c>
       <c r="C35">
-        <v>-0.004631686998608718</v>
+        <v>-0.00407787245071477</v>
       </c>
       <c r="D35">
-        <v>0.009244456932666045</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01206930885714512</v>
+      </c>
+      <c r="E35">
+        <v>-0.01750165937476277</v>
+      </c>
+      <c r="F35">
+        <v>-0.007410988194419738</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02356356426747672</v>
+        <v>0.02809258561286002</v>
       </c>
       <c r="C36">
-        <v>-0.008622237429643027</v>
+        <v>-0.007452778999351781</v>
       </c>
       <c r="D36">
-        <v>0.03998122424604861</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04131106714083357</v>
+      </c>
+      <c r="E36">
+        <v>-0.02014509155506252</v>
+      </c>
+      <c r="F36">
+        <v>0.01496620202291946</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002577369555240632</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007352725028223293</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003149495449249927</v>
+      </c>
+      <c r="E37">
+        <v>-0.0002605759327072096</v>
+      </c>
+      <c r="F37">
+        <v>-0.001455936184082091</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1062757747962753</v>
+        <v>0.09629724787263232</v>
       </c>
       <c r="C39">
-        <v>-0.02330414502010679</v>
+        <v>-0.0166557613185493</v>
       </c>
       <c r="D39">
-        <v>0.153494111124221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1539661066537951</v>
+      </c>
+      <c r="E39">
+        <v>-0.07000124335617317</v>
+      </c>
+      <c r="F39">
+        <v>-0.0061842481448877</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04210671096635723</v>
+        <v>0.04722173366462043</v>
       </c>
       <c r="C40">
-        <v>-0.01116130406890869</v>
+        <v>-0.009906842709905675</v>
       </c>
       <c r="D40">
-        <v>0.0275914572569565</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03403085958764271</v>
+      </c>
+      <c r="E40">
+        <v>-2.90235236917758e-05</v>
+      </c>
+      <c r="F40">
+        <v>-0.03128488050929205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02500296607631751</v>
+        <v>0.02764129631721226</v>
       </c>
       <c r="C41">
-        <v>-0.008049793940648239</v>
+        <v>-0.007399817007078898</v>
       </c>
       <c r="D41">
-        <v>0.009470190998607591</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01090268147232304</v>
+      </c>
+      <c r="E41">
+        <v>-0.01209655343295372</v>
+      </c>
+      <c r="F41">
+        <v>-0.01404363722742438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04081126269997461</v>
+        <v>0.03946657876459726</v>
       </c>
       <c r="C43">
-        <v>-0.008843477008403848</v>
+        <v>-0.008083704157757554</v>
       </c>
       <c r="D43">
-        <v>0.02015243529995806</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0216080185523534</v>
+      </c>
+      <c r="E43">
+        <v>-0.026266321811714</v>
+      </c>
+      <c r="F43">
+        <v>-0.0273576882145306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06182896845890089</v>
+        <v>0.07293482842793701</v>
       </c>
       <c r="C44">
-        <v>-0.02295191303356412</v>
+        <v>-0.01918246707917368</v>
       </c>
       <c r="D44">
-        <v>0.09161464747187328</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09110966149195568</v>
+      </c>
+      <c r="E44">
+        <v>-0.0782241428456675</v>
+      </c>
+      <c r="F44">
+        <v>0.1887831531197068</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>4.385304484632836e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.875759304896832e-06</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>5.185163534300733e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0001278785490786943</v>
+      </c>
+      <c r="F45">
+        <v>3.104893339914588e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02124821079104101</v>
+        <v>0.02469263266269463</v>
       </c>
       <c r="C46">
-        <v>-0.004914600435995014</v>
+        <v>-0.003899066582075093</v>
       </c>
       <c r="D46">
-        <v>0.01202062841962073</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01517733900386249</v>
+      </c>
+      <c r="E46">
+        <v>-0.03341496510524825</v>
+      </c>
+      <c r="F46">
+        <v>-0.02966958486448598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05398712801598807</v>
+        <v>0.05311851284102781</v>
       </c>
       <c r="C47">
-        <v>-0.006880995152389231</v>
+        <v>-0.005422021464790473</v>
       </c>
       <c r="D47">
-        <v>0.008305565064156873</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01273821404210587</v>
+      </c>
+      <c r="E47">
+        <v>-0.02357800649000307</v>
+      </c>
+      <c r="F47">
+        <v>-0.04734619030454697</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04862504947769029</v>
+        <v>0.05167472086748329</v>
       </c>
       <c r="C48">
-        <v>-0.005928124430352139</v>
+        <v>-0.003149951884685379</v>
       </c>
       <c r="D48">
-        <v>0.05055659609464341</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05358417708642867</v>
+      </c>
+      <c r="E48">
+        <v>0.001235683886847135</v>
+      </c>
+      <c r="F48">
+        <v>0.01134357563552097</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1970629118232849</v>
+        <v>0.1991321292314202</v>
       </c>
       <c r="C49">
-        <v>-0.02708547152791917</v>
+        <v>-0.02385318545824836</v>
       </c>
       <c r="D49">
-        <v>-0.009745255859901238</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.003594628803595202</v>
+      </c>
+      <c r="E49">
+        <v>-0.02372160986406342</v>
+      </c>
+      <c r="F49">
+        <v>0.06460505278629546</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0493824670658278</v>
+        <v>0.05200942982361212</v>
       </c>
       <c r="C50">
-        <v>-0.01422984062027377</v>
+        <v>-0.01274396916612937</v>
       </c>
       <c r="D50">
-        <v>0.02477367781782918</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02674391524506122</v>
+      </c>
+      <c r="E50">
+        <v>-0.03092298161090806</v>
+      </c>
+      <c r="F50">
+        <v>0.005771775073557093</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1526009595720721</v>
+        <v>0.1459447513204756</v>
       </c>
       <c r="C52">
-        <v>-0.02391880764622189</v>
+        <v>-0.0208486520839247</v>
       </c>
       <c r="D52">
-        <v>0.04205652155291351</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04457905544872463</v>
+      </c>
+      <c r="E52">
+        <v>-0.03124017443813765</v>
+      </c>
+      <c r="F52">
+        <v>0.04415744165486695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1750454716180678</v>
+        <v>0.1679423429912992</v>
       </c>
       <c r="C53">
-        <v>-0.02647084401223948</v>
+        <v>-0.02480965100865512</v>
       </c>
       <c r="D53">
-        <v>0.005599361014126968</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.008632476105104436</v>
+      </c>
+      <c r="E53">
+        <v>-0.03995741534110541</v>
+      </c>
+      <c r="F53">
+        <v>0.09576923916812068</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01438710527396074</v>
+        <v>0.0176249783734157</v>
       </c>
       <c r="C54">
-        <v>-0.01192796215622138</v>
+        <v>-0.01099018972732379</v>
       </c>
       <c r="D54">
-        <v>0.03034509715517043</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02955258755753839</v>
+      </c>
+      <c r="E54">
+        <v>-0.01950258244753901</v>
+      </c>
+      <c r="F54">
+        <v>-0.007783705022485267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1190148011308647</v>
+        <v>0.1165812538842951</v>
       </c>
       <c r="C55">
-        <v>-0.02272810858545376</v>
+        <v>-0.02153383410445675</v>
       </c>
       <c r="D55">
-        <v>0.005239811903768202</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01209682982543486</v>
+      </c>
+      <c r="E55">
+        <v>-0.03864009542929724</v>
+      </c>
+      <c r="F55">
+        <v>0.03496242264479996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1809234319858819</v>
+        <v>0.1751931505280268</v>
       </c>
       <c r="C56">
-        <v>-0.02451970775966654</v>
+        <v>-0.02319998432523239</v>
       </c>
       <c r="D56">
-        <v>-0.004415412317055373</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0004811865209316139</v>
+      </c>
+      <c r="E56">
+        <v>-0.04003921280488495</v>
+      </c>
+      <c r="F56">
+        <v>0.05541976289416368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04550873202928075</v>
+        <v>0.04435405803494578</v>
       </c>
       <c r="C58">
-        <v>-0.004647200655052589</v>
+        <v>3.346157194441722e-06</v>
       </c>
       <c r="D58">
-        <v>0.06792043234410378</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07773901129196159</v>
+      </c>
+      <c r="E58">
+        <v>-0.03603856414093446</v>
+      </c>
+      <c r="F58">
+        <v>-0.05181250400260839</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.165287708587894</v>
+        <v>0.1715042104195992</v>
       </c>
       <c r="C59">
-        <v>-0.02305510887000235</v>
+        <v>-0.02837486395753408</v>
       </c>
       <c r="D59">
-        <v>-0.2187984474888796</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2148602875857483</v>
+      </c>
+      <c r="E59">
+        <v>0.05371728555149036</v>
+      </c>
+      <c r="F59">
+        <v>-0.06423144703017276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2337711481508224</v>
+        <v>0.2265474126295569</v>
       </c>
       <c r="C60">
-        <v>-0.008119803670754853</v>
+        <v>-0.003452581473032741</v>
       </c>
       <c r="D60">
-        <v>0.03718620643192978</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03822355181776441</v>
+      </c>
+      <c r="E60">
+        <v>0.006515022870168507</v>
+      </c>
+      <c r="F60">
+        <v>0.02494035567180439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07712518150716197</v>
+        <v>0.07237174906147326</v>
       </c>
       <c r="C61">
-        <v>-0.01686422840546769</v>
+        <v>-0.01120563670276493</v>
       </c>
       <c r="D61">
-        <v>0.1143340074852718</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1186557603848831</v>
+      </c>
+      <c r="E61">
+        <v>-0.04552382952198196</v>
+      </c>
+      <c r="F61">
+        <v>-0.01168420476508348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1726591018966097</v>
+        <v>0.1680809677623679</v>
       </c>
       <c r="C62">
-        <v>-0.02786938235216361</v>
+        <v>-0.02553260488607857</v>
       </c>
       <c r="D62">
-        <v>0.002647434853209172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0101428318061097</v>
+      </c>
+      <c r="E62">
+        <v>-0.04222999302973213</v>
+      </c>
+      <c r="F62">
+        <v>0.03758145362300443</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04248043226678947</v>
+        <v>0.04674586062332173</v>
       </c>
       <c r="C63">
-        <v>-0.005900461335491602</v>
+        <v>-0.003101704721981313</v>
       </c>
       <c r="D63">
-        <v>0.05540309211395556</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06421241642507032</v>
+      </c>
+      <c r="E63">
+        <v>-0.02616701220058731</v>
+      </c>
+      <c r="F63">
+        <v>-0.01171374599319322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1140379905102382</v>
+        <v>0.1117035432339197</v>
       </c>
       <c r="C64">
-        <v>-0.01913465294131464</v>
+        <v>-0.01524323867140503</v>
       </c>
       <c r="D64">
-        <v>0.03789577494943082</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04434049226541567</v>
+      </c>
+      <c r="E64">
+        <v>-0.03120616377402025</v>
+      </c>
+      <c r="F64">
+        <v>0.01996091669473441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1478830919035178</v>
+        <v>0.1552234443688399</v>
       </c>
       <c r="C65">
-        <v>-0.04051184289859536</v>
+        <v>-0.039569172692047</v>
       </c>
       <c r="D65">
-        <v>-0.04951903346826569</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03951433622832091</v>
+      </c>
+      <c r="E65">
+        <v>-0.01026170248454596</v>
+      </c>
+      <c r="F65">
+        <v>0.06130366381989513</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1282438624898809</v>
+        <v>0.1158939138952056</v>
       </c>
       <c r="C66">
-        <v>-0.0220479883351418</v>
+        <v>-0.01492991045282519</v>
       </c>
       <c r="D66">
-        <v>0.1376297827138259</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.143223031099193</v>
+      </c>
+      <c r="E66">
+        <v>-0.07339226888795629</v>
+      </c>
+      <c r="F66">
+        <v>-0.002155980536509767</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06348540949140961</v>
+        <v>0.05601705582995855</v>
       </c>
       <c r="C67">
-        <v>-0.007472427891009225</v>
+        <v>-0.00475538068279767</v>
       </c>
       <c r="D67">
-        <v>0.05455266997409618</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05870640034875541</v>
+      </c>
+      <c r="E67">
+        <v>-0.02411162505064538</v>
+      </c>
+      <c r="F67">
+        <v>-0.07418868776690626</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.113762815963724</v>
+        <v>0.1219079365378795</v>
       </c>
       <c r="C68">
-        <v>-0.03094212864527292</v>
+        <v>-0.03834178591276866</v>
       </c>
       <c r="D68">
-        <v>-0.2613965012468433</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2574567338903591</v>
+      </c>
+      <c r="E68">
+        <v>0.08532250154709745</v>
+      </c>
+      <c r="F68">
+        <v>0.01663942331943685</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03994120171451698</v>
+        <v>0.03930941493861094</v>
       </c>
       <c r="C69">
-        <v>-0.003315242097044771</v>
+        <v>-0.002159636086311316</v>
       </c>
       <c r="D69">
-        <v>0.01063672278547592</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01139078862535965</v>
+      </c>
+      <c r="E69">
+        <v>-0.0298537240929733</v>
+      </c>
+      <c r="F69">
+        <v>-0.01800180756034233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06961101506431026</v>
+        <v>0.06970112004793899</v>
       </c>
       <c r="C70">
-        <v>0.02261232262980034</v>
+        <v>0.02505421988214846</v>
       </c>
       <c r="D70">
-        <v>0.02772776293169636</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03154920632127624</v>
+      </c>
+      <c r="E70">
+        <v>0.03969513622472852</v>
+      </c>
+      <c r="F70">
+        <v>-0.3225395805110599</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1327419158790614</v>
+        <v>0.1422269234158698</v>
       </c>
       <c r="C71">
-        <v>-0.03608801299621701</v>
+        <v>-0.04353164721495053</v>
       </c>
       <c r="D71">
-        <v>-0.2756547954073978</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2667555410868324</v>
+      </c>
+      <c r="E71">
+        <v>0.09592516583582415</v>
+      </c>
+      <c r="F71">
+        <v>0.02222917079880247</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.138498881933266</v>
+        <v>0.1443215021798193</v>
       </c>
       <c r="C72">
-        <v>-0.03188344843452226</v>
+        <v>-0.03132651495153398</v>
       </c>
       <c r="D72">
-        <v>0.001507697656190858</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-1.606265658073814e-05</v>
+      </c>
+      <c r="E72">
+        <v>-0.04323336247664052</v>
+      </c>
+      <c r="F72">
+        <v>0.03427788145689176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1997893708887</v>
+        <v>0.202993201067164</v>
       </c>
       <c r="C73">
-        <v>-0.02153814003753162</v>
+        <v>-0.01701838363249205</v>
       </c>
       <c r="D73">
-        <v>0.01025256792274789</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01758528676630181</v>
+      </c>
+      <c r="E73">
+        <v>-0.0671539994780765</v>
+      </c>
+      <c r="F73">
+        <v>0.03464838633592448</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08800234747435752</v>
+        <v>0.08854067708594471</v>
       </c>
       <c r="C74">
-        <v>-0.01563677986611023</v>
+        <v>-0.01428992933557372</v>
       </c>
       <c r="D74">
-        <v>0.01264000592562802</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01718765489615205</v>
+      </c>
+      <c r="E74">
+        <v>-0.05009722987046289</v>
+      </c>
+      <c r="F74">
+        <v>0.05191328116152538</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1315193546569615</v>
+        <v>0.1238151275566498</v>
       </c>
       <c r="C75">
-        <v>-0.03429854097908485</v>
+        <v>-0.03151187715035954</v>
       </c>
       <c r="D75">
-        <v>0.02563936182941168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03207375677483099</v>
+      </c>
+      <c r="E75">
+        <v>-0.06179476307631735</v>
+      </c>
+      <c r="F75">
+        <v>0.01876893408362028</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.0811173261298912</v>
+        <v>0.09281145212169646</v>
       </c>
       <c r="C77">
-        <v>-0.01567176994371953</v>
+        <v>-0.01042651552886352</v>
       </c>
       <c r="D77">
-        <v>0.1174029311639724</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1210059314594239</v>
+      </c>
+      <c r="E77">
+        <v>-0.04795639969999364</v>
+      </c>
+      <c r="F77">
+        <v>0.04055572020900886</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1006483275849431</v>
+        <v>0.1008434617521142</v>
       </c>
       <c r="C78">
-        <v>-0.04629110554864265</v>
+        <v>-0.04171060389909523</v>
       </c>
       <c r="D78">
-        <v>0.1104260554696259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1098417706935431</v>
+      </c>
+      <c r="E78">
+        <v>-0.0789923058324894</v>
+      </c>
+      <c r="F78">
+        <v>0.03735395958213519</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1689483355038496</v>
+        <v>0.1642158522450673</v>
       </c>
       <c r="C79">
-        <v>-0.03097968755593396</v>
+        <v>-0.02849364298753491</v>
       </c>
       <c r="D79">
-        <v>0.01081659310990879</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01775395701426716</v>
+      </c>
+      <c r="E79">
+        <v>-0.05029397564216734</v>
+      </c>
+      <c r="F79">
+        <v>0.01365886994444438</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08053114362809979</v>
+        <v>0.07919524187025977</v>
       </c>
       <c r="C80">
-        <v>-0.004060280178868379</v>
+        <v>-0.001176963570031129</v>
       </c>
       <c r="D80">
-        <v>0.05162373104077309</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05144835350632099</v>
+      </c>
+      <c r="E80">
+        <v>-0.03611558986371648</v>
+      </c>
+      <c r="F80">
+        <v>-0.05861007070118264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.11801591845674</v>
+        <v>0.1126363272139651</v>
       </c>
       <c r="C81">
-        <v>-0.0357481306526353</v>
+        <v>-0.03431800989300839</v>
       </c>
       <c r="D81">
-        <v>0.006661250301981623</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01242434043920463</v>
+      </c>
+      <c r="E81">
+        <v>-0.05611670910196126</v>
+      </c>
+      <c r="F81">
+        <v>0.009558781606850628</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1639278404214098</v>
+        <v>0.1621277893376246</v>
       </c>
       <c r="C82">
-        <v>-0.03039077123237196</v>
+        <v>-0.02953150514328213</v>
       </c>
       <c r="D82">
-        <v>0.00717414908128185</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.005254171204194163</v>
+      </c>
+      <c r="E82">
+        <v>-0.03908087448774653</v>
+      </c>
+      <c r="F82">
+        <v>0.09746552682468949</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05794305401275118</v>
+        <v>0.05297470560350298</v>
       </c>
       <c r="C83">
-        <v>-0.005868518058574638</v>
+        <v>-0.003600470836118276</v>
       </c>
       <c r="D83">
-        <v>0.03820083459533404</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03981141360613395</v>
+      </c>
+      <c r="E83">
+        <v>0.00876858223570463</v>
+      </c>
+      <c r="F83">
+        <v>-0.03612699746332402</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05896827026597227</v>
+        <v>0.05480061161562686</v>
       </c>
       <c r="C84">
-        <v>-0.01411708824024549</v>
+        <v>-0.01106255617777187</v>
       </c>
       <c r="D84">
-        <v>0.07708149451290029</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07795787203160975</v>
+      </c>
+      <c r="E84">
+        <v>-0.01672497436485676</v>
+      </c>
+      <c r="F84">
+        <v>0.00540686536549329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1396849274491795</v>
+        <v>0.1345355263549106</v>
       </c>
       <c r="C85">
-        <v>-0.03405930894519266</v>
+        <v>-0.03235953680201556</v>
       </c>
       <c r="D85">
-        <v>0.0079760520224718</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01177586256906305</v>
+      </c>
+      <c r="E85">
+        <v>-0.0465642796271197</v>
+      </c>
+      <c r="F85">
+        <v>0.05934149860643546</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08238522779216557</v>
+        <v>0.0784925802395425</v>
       </c>
       <c r="C86">
-        <v>0.005709114052733795</v>
+        <v>0.008649934508114833</v>
       </c>
       <c r="D86">
-        <v>0.01969305254529079</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04743987719345596</v>
+      </c>
+      <c r="E86">
+        <v>-0.08954952630433276</v>
+      </c>
+      <c r="F86">
+        <v>-0.8317061617332093</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09471094258444314</v>
+        <v>0.09132387770193806</v>
       </c>
       <c r="C87">
-        <v>-0.03033763065132332</v>
+        <v>-0.02195164013872115</v>
       </c>
       <c r="D87">
-        <v>0.07367749373913528</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09143562325127377</v>
+      </c>
+      <c r="E87">
+        <v>0.05834992019174775</v>
+      </c>
+      <c r="F87">
+        <v>0.06820011428370476</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06213130723964672</v>
+        <v>0.06096739672445228</v>
       </c>
       <c r="C88">
-        <v>-0.006667927326187984</v>
+        <v>-0.003685269737895018</v>
       </c>
       <c r="D88">
-        <v>0.05116259666561956</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05129232846777313</v>
+      </c>
+      <c r="E88">
+        <v>-0.03116250637204444</v>
+      </c>
+      <c r="F88">
+        <v>0.001333779132121823</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1241711997845825</v>
+        <v>0.1313052630597912</v>
       </c>
       <c r="C89">
-        <v>-0.01147726723794443</v>
+        <v>-0.01855867460468932</v>
       </c>
       <c r="D89">
-        <v>-0.2362417222125019</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2393516366046995</v>
+      </c>
+      <c r="E89">
+        <v>0.08778474311853496</v>
+      </c>
+      <c r="F89">
+        <v>0.008317623140090559</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1436397894368098</v>
+        <v>0.1571248399501503</v>
       </c>
       <c r="C90">
-        <v>-0.03221926624593342</v>
+        <v>-0.04036522834765058</v>
       </c>
       <c r="D90">
-        <v>-0.2623175434476697</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.264781575346449</v>
+      </c>
+      <c r="E90">
+        <v>0.1162395329102633</v>
+      </c>
+      <c r="F90">
+        <v>0.008090629302127549</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.124711223045348</v>
+        <v>0.1212822794304307</v>
       </c>
       <c r="C91">
-        <v>-0.02505365547561929</v>
+        <v>-0.02410742331320848</v>
       </c>
       <c r="D91">
-        <v>-0.01810102575729838</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01340956556686449</v>
+      </c>
+      <c r="E91">
+        <v>-0.05759718992832601</v>
+      </c>
+      <c r="F91">
+        <v>-0.01427905282851695</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1444540749290612</v>
+        <v>0.1504722997687448</v>
       </c>
       <c r="C92">
-        <v>-0.02321051978696246</v>
+        <v>-0.03136417376994109</v>
       </c>
       <c r="D92">
-        <v>-0.2888555519328745</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2894613167711763</v>
+      </c>
+      <c r="E92">
+        <v>0.1057314329533758</v>
+      </c>
+      <c r="F92">
+        <v>-0.008551249168726781</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1489771890663152</v>
+        <v>0.1599693764114681</v>
       </c>
       <c r="C93">
-        <v>-0.02892602180111095</v>
+        <v>-0.03553041622458711</v>
       </c>
       <c r="D93">
-        <v>-0.2595857397566732</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2580112490648164</v>
+      </c>
+      <c r="E93">
+        <v>0.07121707380537484</v>
+      </c>
+      <c r="F93">
+        <v>0.01335941678342207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1312211484660563</v>
+        <v>0.1236035790052976</v>
       </c>
       <c r="C94">
-        <v>-0.03057555288043603</v>
+        <v>-0.0271311250269542</v>
       </c>
       <c r="D94">
-        <v>0.04098691348618792</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.0452623284383117</v>
+      </c>
+      <c r="E94">
+        <v>-0.06392014490336152</v>
+      </c>
+      <c r="F94">
+        <v>0.02237933542355887</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1269498154130754</v>
+        <v>0.1292856048923742</v>
       </c>
       <c r="C95">
-        <v>-0.01259550518453164</v>
+        <v>-0.00716024297799032</v>
       </c>
       <c r="D95">
-        <v>0.0895738728720803</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1004023410928283</v>
+      </c>
+      <c r="E95">
+        <v>-0.06344190081840909</v>
+      </c>
+      <c r="F95">
+        <v>-0.0322726017337347</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1506879903729745</v>
+        <v>0.1381967281386474</v>
       </c>
       <c r="C96">
-        <v>0.982731123344264</v>
+        <v>0.9833992009102486</v>
       </c>
       <c r="D96">
-        <v>-0.02690842408109018</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05559227976501206</v>
+      </c>
+      <c r="E96">
+        <v>-0.05381651729647868</v>
+      </c>
+      <c r="F96">
+        <v>0.04297213784327279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.189264884319978</v>
+        <v>0.192846640190618</v>
       </c>
       <c r="C97">
-        <v>-0.001273370347030625</v>
+        <v>0.0001017786344279776</v>
       </c>
       <c r="D97">
-        <v>-0.02295225456416218</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02680821784788754</v>
+      </c>
+      <c r="E97">
+        <v>-0.01975448975633816</v>
+      </c>
+      <c r="F97">
+        <v>-0.1836021476058491</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.19518837001951</v>
+        <v>0.2012860470507893</v>
       </c>
       <c r="C98">
-        <v>-0.01562326585342316</v>
+        <v>-0.0108559277162474</v>
       </c>
       <c r="D98">
-        <v>0.006050315806699554</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.00948892545865395</v>
+      </c>
+      <c r="E98">
+        <v>0.08813752335017808</v>
+      </c>
+      <c r="F98">
+        <v>-0.07180539044448782</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05764634998058989</v>
+        <v>0.05708960886351882</v>
       </c>
       <c r="C99">
-        <v>0.000538032436566745</v>
+        <v>0.00263341983041059</v>
       </c>
       <c r="D99">
-        <v>0.03853160170450946</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04353069894806344</v>
+      </c>
+      <c r="E99">
+        <v>-0.02649876257728305</v>
+      </c>
+      <c r="F99">
+        <v>-0.01300231559206485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.147187663757381</v>
+        <v>0.1336193237416142</v>
       </c>
       <c r="C100">
-        <v>0.03506386030642401</v>
+        <v>0.04734062788878862</v>
       </c>
       <c r="D100">
-        <v>0.3978701125272576</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3614913675193177</v>
+      </c>
+      <c r="E100">
+        <v>0.8935978808939636</v>
+      </c>
+      <c r="F100">
+        <v>-0.01876755824513196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02514343467616147</v>
+        <v>0.02764361862979078</v>
       </c>
       <c r="C101">
-        <v>-0.009706303927418997</v>
+        <v>-0.009067376625021153</v>
       </c>
       <c r="D101">
-        <v>0.03080853406077002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03055547312741261</v>
+      </c>
+      <c r="E101">
+        <v>-0.01598182186742771</v>
+      </c>
+      <c r="F101">
+        <v>-0.0287555474662174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
